--- a/Analysejaarrekeningexcel.xlsx
+++ b/Analysejaarrekeningexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernardusscholen1-my.sharepoint.com/personal/timo_meersschaut_bernardusscholen_be/Documents/Oefeningen HTML/Homepage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernardusscholen1-my.sharepoint.com/personal/timo_meersschaut_bernardusscholen_be/Documents/Oefeningen HTML/Homepage/GIP-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F2D7BDD3-24DE-4F6C-8C88-7CE402894E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A576650-F07E-41D3-934B-FEAE842E9B15}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{F2D7BDD3-24DE-4F6C-8C88-7CE402894E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4973ED07-D508-4A3F-AF0E-E16883A48496}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE068E-9937-45A1-B1AC-C6EC17DB54B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{57BE068E-9937-45A1-B1AC-C6EC17DB54B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sinelco International H" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B51116-0E5A-411C-AB89-0D21B41CDEEF}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2417,8 +2417,8 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
